--- a/biology/Médecine/Francisco_Suárez_de_Ribera/Francisco_Suárez_de_Ribera.xlsx
+++ b/biology/Médecine/Francisco_Suárez_de_Ribera/Francisco_Suárez_de_Ribera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francisco_Su%C3%A1rez_de_Ribera</t>
+          <t>Francisco_Suárez_de_Ribera</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francisco Suárez de Ribera, né en 1686, et mort en 1738, est un médecin espagnol qui se distingue par ses nombreux écrits publiés sur la médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francisco_Su%C3%A1rez_de_Ribera</t>
+          <t>Francisco_Suárez_de_Ribera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Textes sur des sujets médicaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Suárez de Ribera est un écrivain prolifique. Il a écrit plusieurs textes sur la pharmacopée, la pédiatrie, l'anatomie, la chirurgie et d'autres sujets liés à la médecine.
-Il est l'auteur d'une version de Dioscoride et de plusieurs livres de prescriptions, commentant les propriétés, préparations et indications[1].
-Il a écrit des textes pédiatriques[2], sur des sujets d'anatomie[3] et de chirurgie, comme la Cirugía metódica, en 1722. Il était un partisan du iatromécanisme[4].
+Il est l'auteur d'une version de Dioscoride et de plusieurs livres de prescriptions, commentant les propriétés, préparations et indications.
+Il a écrit des textes pédiatriques, sur des sujets d'anatomie et de chirurgie, comme la Cirugía metódica, en 1722. Il était un partisan du iatromécanisme.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francisco_Su%C3%A1rez_de_Ribera</t>
+          <t>Francisco_Suárez_de_Ribera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres publiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses nombreuses publications, on peut citer :
 Clavicula regulina, en 1718
